--- a/data/134/DEUSTATIS/Foreign trade - countries_historical.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - countries_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foreign trade - countries" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,2255 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="748">
-  <si>
-    <t>1960-01</t>
-  </si>
-  <si>
-    <t>1960-02</t>
-  </si>
-  <si>
-    <t>1960-03</t>
-  </si>
-  <si>
-    <t>1960-04</t>
-  </si>
-  <si>
-    <t>1960-05</t>
-  </si>
-  <si>
-    <t>1960-06</t>
-  </si>
-  <si>
-    <t>1960-07</t>
-  </si>
-  <si>
-    <t>1960-08</t>
-  </si>
-  <si>
-    <t>1960-09</t>
-  </si>
-  <si>
-    <t>1960-10</t>
-  </si>
-  <si>
-    <t>1960-11</t>
-  </si>
-  <si>
-    <t>1960-12</t>
-  </si>
-  <si>
-    <t>1961-01</t>
-  </si>
-  <si>
-    <t>1961-02</t>
-  </si>
-  <si>
-    <t>1961-03</t>
-  </si>
-  <si>
-    <t>1961-04</t>
-  </si>
-  <si>
-    <t>1961-05</t>
-  </si>
-  <si>
-    <t>1961-06</t>
-  </si>
-  <si>
-    <t>1961-07</t>
-  </si>
-  <si>
-    <t>1961-08</t>
-  </si>
-  <si>
-    <t>1961-09</t>
-  </si>
-  <si>
-    <t>1961-10</t>
-  </si>
-  <si>
-    <t>1961-11</t>
-  </si>
-  <si>
-    <t>1961-12</t>
-  </si>
-  <si>
-    <t>1962-01</t>
-  </si>
-  <si>
-    <t>1962-02</t>
-  </si>
-  <si>
-    <t>1962-03</t>
-  </si>
-  <si>
-    <t>1962-04</t>
-  </si>
-  <si>
-    <t>1962-05</t>
-  </si>
-  <si>
-    <t>1962-06</t>
-  </si>
-  <si>
-    <t>1962-07</t>
-  </si>
-  <si>
-    <t>1962-08</t>
-  </si>
-  <si>
-    <t>1962-09</t>
-  </si>
-  <si>
-    <t>1962-10</t>
-  </si>
-  <si>
-    <t>1962-11</t>
-  </si>
-  <si>
-    <t>1962-12</t>
-  </si>
-  <si>
-    <t>1963-01</t>
-  </si>
-  <si>
-    <t>1963-02</t>
-  </si>
-  <si>
-    <t>1963-03</t>
-  </si>
-  <si>
-    <t>1963-04</t>
-  </si>
-  <si>
-    <t>1963-05</t>
-  </si>
-  <si>
-    <t>1963-06</t>
-  </si>
-  <si>
-    <t>1963-07</t>
-  </si>
-  <si>
-    <t>1963-08</t>
-  </si>
-  <si>
-    <t>1963-09</t>
-  </si>
-  <si>
-    <t>1963-10</t>
-  </si>
-  <si>
-    <t>1963-11</t>
-  </si>
-  <si>
-    <t>1963-12</t>
-  </si>
-  <si>
-    <t>1964-01</t>
-  </si>
-  <si>
-    <t>1964-02</t>
-  </si>
-  <si>
-    <t>1964-03</t>
-  </si>
-  <si>
-    <t>1964-04</t>
-  </si>
-  <si>
-    <t>1964-05</t>
-  </si>
-  <si>
-    <t>1964-06</t>
-  </si>
-  <si>
-    <t>1964-07</t>
-  </si>
-  <si>
-    <t>1964-08</t>
-  </si>
-  <si>
-    <t>1964-09</t>
-  </si>
-  <si>
-    <t>1964-10</t>
-  </si>
-  <si>
-    <t>1964-11</t>
-  </si>
-  <si>
-    <t>1964-12</t>
-  </si>
-  <si>
-    <t>1965-01</t>
-  </si>
-  <si>
-    <t>1965-02</t>
-  </si>
-  <si>
-    <t>1965-03</t>
-  </si>
-  <si>
-    <t>1965-04</t>
-  </si>
-  <si>
-    <t>1965-05</t>
-  </si>
-  <si>
-    <t>1965-06</t>
-  </si>
-  <si>
-    <t>1965-07</t>
-  </si>
-  <si>
-    <t>1965-08</t>
-  </si>
-  <si>
-    <t>1965-09</t>
-  </si>
-  <si>
-    <t>1965-10</t>
-  </si>
-  <si>
-    <t>1965-11</t>
-  </si>
-  <si>
-    <t>1965-12</t>
-  </si>
-  <si>
-    <t>1966-01</t>
-  </si>
-  <si>
-    <t>1966-02</t>
-  </si>
-  <si>
-    <t>1966-03</t>
-  </si>
-  <si>
-    <t>1966-04</t>
-  </si>
-  <si>
-    <t>1966-05</t>
-  </si>
-  <si>
-    <t>1966-06</t>
-  </si>
-  <si>
-    <t>1966-07</t>
-  </si>
-  <si>
-    <t>1966-08</t>
-  </si>
-  <si>
-    <t>1966-09</t>
-  </si>
-  <si>
-    <t>1966-10</t>
-  </si>
-  <si>
-    <t>1966-11</t>
-  </si>
-  <si>
-    <t>1966-12</t>
-  </si>
-  <si>
-    <t>1967-01</t>
-  </si>
-  <si>
-    <t>1967-02</t>
-  </si>
-  <si>
-    <t>1967-03</t>
-  </si>
-  <si>
-    <t>1967-04</t>
-  </si>
-  <si>
-    <t>1967-05</t>
-  </si>
-  <si>
-    <t>1967-06</t>
-  </si>
-  <si>
-    <t>1967-07</t>
-  </si>
-  <si>
-    <t>1967-08</t>
-  </si>
-  <si>
-    <t>1967-09</t>
-  </si>
-  <si>
-    <t>1967-10</t>
-  </si>
-  <si>
-    <t>1967-11</t>
-  </si>
-  <si>
-    <t>1967-12</t>
-  </si>
-  <si>
-    <t>1968-01</t>
-  </si>
-  <si>
-    <t>1968-02</t>
-  </si>
-  <si>
-    <t>1968-03</t>
-  </si>
-  <si>
-    <t>1968-04</t>
-  </si>
-  <si>
-    <t>1968-05</t>
-  </si>
-  <si>
-    <t>1968-06</t>
-  </si>
-  <si>
-    <t>1968-07</t>
-  </si>
-  <si>
-    <t>1968-08</t>
-  </si>
-  <si>
-    <t>1968-09</t>
-  </si>
-  <si>
-    <t>1968-10</t>
-  </si>
-  <si>
-    <t>1968-11</t>
-  </si>
-  <si>
-    <t>1968-12</t>
-  </si>
-  <si>
-    <t>1969-01</t>
-  </si>
-  <si>
-    <t>1969-02</t>
-  </si>
-  <si>
-    <t>1969-03</t>
-  </si>
-  <si>
-    <t>1969-04</t>
-  </si>
-  <si>
-    <t>1969-05</t>
-  </si>
-  <si>
-    <t>1969-06</t>
-  </si>
-  <si>
-    <t>1969-07</t>
-  </si>
-  <si>
-    <t>1969-08</t>
-  </si>
-  <si>
-    <t>1969-09</t>
-  </si>
-  <si>
-    <t>1969-10</t>
-  </si>
-  <si>
-    <t>1969-11</t>
-  </si>
-  <si>
-    <t>1969-12</t>
-  </si>
-  <si>
-    <t>1970-01</t>
-  </si>
-  <si>
-    <t>1970-02</t>
-  </si>
-  <si>
-    <t>1970-03</t>
-  </si>
-  <si>
-    <t>1970-04</t>
-  </si>
-  <si>
-    <t>1970-05</t>
-  </si>
-  <si>
-    <t>1970-06</t>
-  </si>
-  <si>
-    <t>1970-07</t>
-  </si>
-  <si>
-    <t>1970-08</t>
-  </si>
-  <si>
-    <t>1970-09</t>
-  </si>
-  <si>
-    <t>1970-10</t>
-  </si>
-  <si>
-    <t>1970-11</t>
-  </si>
-  <si>
-    <t>1970-12</t>
-  </si>
-  <si>
-    <t>1971-01</t>
-  </si>
-  <si>
-    <t>1971-02</t>
-  </si>
-  <si>
-    <t>1971-03</t>
-  </si>
-  <si>
-    <t>1971-04</t>
-  </si>
-  <si>
-    <t>1971-05</t>
-  </si>
-  <si>
-    <t>1971-06</t>
-  </si>
-  <si>
-    <t>1971-07</t>
-  </si>
-  <si>
-    <t>1971-08</t>
-  </si>
-  <si>
-    <t>1971-09</t>
-  </si>
-  <si>
-    <t>1971-10</t>
-  </si>
-  <si>
-    <t>1971-11</t>
-  </si>
-  <si>
-    <t>1971-12</t>
-  </si>
-  <si>
-    <t>1972-01</t>
-  </si>
-  <si>
-    <t>1972-02</t>
-  </si>
-  <si>
-    <t>1972-03</t>
-  </si>
-  <si>
-    <t>1972-04</t>
-  </si>
-  <si>
-    <t>1972-05</t>
-  </si>
-  <si>
-    <t>1972-06</t>
-  </si>
-  <si>
-    <t>1972-07</t>
-  </si>
-  <si>
-    <t>1972-08</t>
-  </si>
-  <si>
-    <t>1972-09</t>
-  </si>
-  <si>
-    <t>1972-10</t>
-  </si>
-  <si>
-    <t>1972-11</t>
-  </si>
-  <si>
-    <t>1972-12</t>
-  </si>
-  <si>
-    <t>1973-01</t>
-  </si>
-  <si>
-    <t>1973-02</t>
-  </si>
-  <si>
-    <t>1973-03</t>
-  </si>
-  <si>
-    <t>1973-04</t>
-  </si>
-  <si>
-    <t>1973-05</t>
-  </si>
-  <si>
-    <t>1973-06</t>
-  </si>
-  <si>
-    <t>1973-07</t>
-  </si>
-  <si>
-    <t>1973-08</t>
-  </si>
-  <si>
-    <t>1973-09</t>
-  </si>
-  <si>
-    <t>1973-10</t>
-  </si>
-  <si>
-    <t>1973-11</t>
-  </si>
-  <si>
-    <t>1973-12</t>
-  </si>
-  <si>
-    <t>1974-01</t>
-  </si>
-  <si>
-    <t>1974-02</t>
-  </si>
-  <si>
-    <t>1974-03</t>
-  </si>
-  <si>
-    <t>1974-04</t>
-  </si>
-  <si>
-    <t>1974-05</t>
-  </si>
-  <si>
-    <t>1974-06</t>
-  </si>
-  <si>
-    <t>1974-07</t>
-  </si>
-  <si>
-    <t>1974-08</t>
-  </si>
-  <si>
-    <t>1974-09</t>
-  </si>
-  <si>
-    <t>1974-10</t>
-  </si>
-  <si>
-    <t>1974-11</t>
-  </si>
-  <si>
-    <t>1974-12</t>
-  </si>
-  <si>
-    <t>1975-01</t>
-  </si>
-  <si>
-    <t>1975-02</t>
-  </si>
-  <si>
-    <t>1975-03</t>
-  </si>
-  <si>
-    <t>1975-04</t>
-  </si>
-  <si>
-    <t>1975-05</t>
-  </si>
-  <si>
-    <t>1975-06</t>
-  </si>
-  <si>
-    <t>1975-07</t>
-  </si>
-  <si>
-    <t>1975-08</t>
-  </si>
-  <si>
-    <t>1975-09</t>
-  </si>
-  <si>
-    <t>1975-10</t>
-  </si>
-  <si>
-    <t>1975-11</t>
-  </si>
-  <si>
-    <t>1975-12</t>
-  </si>
-  <si>
-    <t>1976-01</t>
-  </si>
-  <si>
-    <t>1976-02</t>
-  </si>
-  <si>
-    <t>1976-03</t>
-  </si>
-  <si>
-    <t>1976-04</t>
-  </si>
-  <si>
-    <t>1976-05</t>
-  </si>
-  <si>
-    <t>1976-06</t>
-  </si>
-  <si>
-    <t>1976-07</t>
-  </si>
-  <si>
-    <t>1976-08</t>
-  </si>
-  <si>
-    <t>1976-09</t>
-  </si>
-  <si>
-    <t>1976-10</t>
-  </si>
-  <si>
-    <t>1976-11</t>
-  </si>
-  <si>
-    <t>1976-12</t>
-  </si>
-  <si>
-    <t>1977-01</t>
-  </si>
-  <si>
-    <t>1977-02</t>
-  </si>
-  <si>
-    <t>1977-03</t>
-  </si>
-  <si>
-    <t>1977-04</t>
-  </si>
-  <si>
-    <t>1977-05</t>
-  </si>
-  <si>
-    <t>1977-06</t>
-  </si>
-  <si>
-    <t>1977-07</t>
-  </si>
-  <si>
-    <t>1977-08</t>
-  </si>
-  <si>
-    <t>1977-09</t>
-  </si>
-  <si>
-    <t>1977-10</t>
-  </si>
-  <si>
-    <t>1977-11</t>
-  </si>
-  <si>
-    <t>1977-12</t>
-  </si>
-  <si>
-    <t>1978-01</t>
-  </si>
-  <si>
-    <t>1978-02</t>
-  </si>
-  <si>
-    <t>1978-03</t>
-  </si>
-  <si>
-    <t>1978-04</t>
-  </si>
-  <si>
-    <t>1978-05</t>
-  </si>
-  <si>
-    <t>1978-06</t>
-  </si>
-  <si>
-    <t>1978-07</t>
-  </si>
-  <si>
-    <t>1978-08</t>
-  </si>
-  <si>
-    <t>1978-09</t>
-  </si>
-  <si>
-    <t>1978-10</t>
-  </si>
-  <si>
-    <t>1978-11</t>
-  </si>
-  <si>
-    <t>1978-12</t>
-  </si>
-  <si>
-    <t>1979-01</t>
-  </si>
-  <si>
-    <t>1979-02</t>
-  </si>
-  <si>
-    <t>1979-03</t>
-  </si>
-  <si>
-    <t>1979-04</t>
-  </si>
-  <si>
-    <t>1979-05</t>
-  </si>
-  <si>
-    <t>1979-06</t>
-  </si>
-  <si>
-    <t>1979-07</t>
-  </si>
-  <si>
-    <t>1979-08</t>
-  </si>
-  <si>
-    <t>1979-09</t>
-  </si>
-  <si>
-    <t>1979-10</t>
-  </si>
-  <si>
-    <t>1979-11</t>
-  </si>
-  <si>
-    <t>1979-12</t>
-  </si>
-  <si>
-    <t>1980-01</t>
-  </si>
-  <si>
-    <t>1980-02</t>
-  </si>
-  <si>
-    <t>1980-03</t>
-  </si>
-  <si>
-    <t>1980-04</t>
-  </si>
-  <si>
-    <t>1980-05</t>
-  </si>
-  <si>
-    <t>1980-06</t>
-  </si>
-  <si>
-    <t>1980-07</t>
-  </si>
-  <si>
-    <t>1980-08</t>
-  </si>
-  <si>
-    <t>1980-09</t>
-  </si>
-  <si>
-    <t>1980-10</t>
-  </si>
-  <si>
-    <t>1980-11</t>
-  </si>
-  <si>
-    <t>1980-12</t>
-  </si>
-  <si>
-    <t>1981-01</t>
-  </si>
-  <si>
-    <t>1981-02</t>
-  </si>
-  <si>
-    <t>1981-03</t>
-  </si>
-  <si>
-    <t>1981-04</t>
-  </si>
-  <si>
-    <t>1981-05</t>
-  </si>
-  <si>
-    <t>1981-06</t>
-  </si>
-  <si>
-    <t>1981-07</t>
-  </si>
-  <si>
-    <t>1981-08</t>
-  </si>
-  <si>
-    <t>1981-09</t>
-  </si>
-  <si>
-    <t>1981-10</t>
-  </si>
-  <si>
-    <t>1981-11</t>
-  </si>
-  <si>
-    <t>1981-12</t>
-  </si>
-  <si>
-    <t>1982-01</t>
-  </si>
-  <si>
-    <t>1982-02</t>
-  </si>
-  <si>
-    <t>1982-03</t>
-  </si>
-  <si>
-    <t>1982-04</t>
-  </si>
-  <si>
-    <t>1982-05</t>
-  </si>
-  <si>
-    <t>1982-06</t>
-  </si>
-  <si>
-    <t>1982-07</t>
-  </si>
-  <si>
-    <t>1982-08</t>
-  </si>
-  <si>
-    <t>1982-09</t>
-  </si>
-  <si>
-    <t>1982-10</t>
-  </si>
-  <si>
-    <t>1982-11</t>
-  </si>
-  <si>
-    <t>1982-12</t>
-  </si>
-  <si>
-    <t>1983-01</t>
-  </si>
-  <si>
-    <t>1983-02</t>
-  </si>
-  <si>
-    <t>1983-03</t>
-  </si>
-  <si>
-    <t>1983-04</t>
-  </si>
-  <si>
-    <t>1983-05</t>
-  </si>
-  <si>
-    <t>1983-06</t>
-  </si>
-  <si>
-    <t>1983-07</t>
-  </si>
-  <si>
-    <t>1983-08</t>
-  </si>
-  <si>
-    <t>1983-09</t>
-  </si>
-  <si>
-    <t>1983-10</t>
-  </si>
-  <si>
-    <t>1983-11</t>
-  </si>
-  <si>
-    <t>1983-12</t>
-  </si>
-  <si>
-    <t>1984-01</t>
-  </si>
-  <si>
-    <t>1984-02</t>
-  </si>
-  <si>
-    <t>1984-03</t>
-  </si>
-  <si>
-    <t>1984-04</t>
-  </si>
-  <si>
-    <t>1984-05</t>
-  </si>
-  <si>
-    <t>1984-06</t>
-  </si>
-  <si>
-    <t>1984-07</t>
-  </si>
-  <si>
-    <t>1984-08</t>
-  </si>
-  <si>
-    <t>1984-09</t>
-  </si>
-  <si>
-    <t>1984-10</t>
-  </si>
-  <si>
-    <t>1984-11</t>
-  </si>
-  <si>
-    <t>1984-12</t>
-  </si>
-  <si>
-    <t>1985-01</t>
-  </si>
-  <si>
-    <t>1985-02</t>
-  </si>
-  <si>
-    <t>1985-03</t>
-  </si>
-  <si>
-    <t>1985-04</t>
-  </si>
-  <si>
-    <t>1985-05</t>
-  </si>
-  <si>
-    <t>1985-06</t>
-  </si>
-  <si>
-    <t>1985-07</t>
-  </si>
-  <si>
-    <t>1985-08</t>
-  </si>
-  <si>
-    <t>1985-09</t>
-  </si>
-  <si>
-    <t>1985-10</t>
-  </si>
-  <si>
-    <t>1985-11</t>
-  </si>
-  <si>
-    <t>1985-12</t>
-  </si>
-  <si>
-    <t>1986-01</t>
-  </si>
-  <si>
-    <t>1986-02</t>
-  </si>
-  <si>
-    <t>1986-03</t>
-  </si>
-  <si>
-    <t>1986-04</t>
-  </si>
-  <si>
-    <t>1986-05</t>
-  </si>
-  <si>
-    <t>1986-06</t>
-  </si>
-  <si>
-    <t>1986-07</t>
-  </si>
-  <si>
-    <t>1986-08</t>
-  </si>
-  <si>
-    <t>1986-09</t>
-  </si>
-  <si>
-    <t>1986-10</t>
-  </si>
-  <si>
-    <t>1986-11</t>
-  </si>
-  <si>
-    <t>1986-12</t>
-  </si>
-  <si>
-    <t>1987-01</t>
-  </si>
-  <si>
-    <t>1987-02</t>
-  </si>
-  <si>
-    <t>1987-03</t>
-  </si>
-  <si>
-    <t>1987-04</t>
-  </si>
-  <si>
-    <t>1987-05</t>
-  </si>
-  <si>
-    <t>1987-06</t>
-  </si>
-  <si>
-    <t>1987-07</t>
-  </si>
-  <si>
-    <t>1987-08</t>
-  </si>
-  <si>
-    <t>1987-09</t>
-  </si>
-  <si>
-    <t>1987-10</t>
-  </si>
-  <si>
-    <t>1987-11</t>
-  </si>
-  <si>
-    <t>1987-12</t>
-  </si>
-  <si>
-    <t>1988-01</t>
-  </si>
-  <si>
-    <t>1988-02</t>
-  </si>
-  <si>
-    <t>1988-03</t>
-  </si>
-  <si>
-    <t>1988-04</t>
-  </si>
-  <si>
-    <t>1988-05</t>
-  </si>
-  <si>
-    <t>1988-06</t>
-  </si>
-  <si>
-    <t>1988-07</t>
-  </si>
-  <si>
-    <t>1988-08</t>
-  </si>
-  <si>
-    <t>1988-09</t>
-  </si>
-  <si>
-    <t>1988-10</t>
-  </si>
-  <si>
-    <t>1988-11</t>
-  </si>
-  <si>
-    <t>1988-12</t>
-  </si>
-  <si>
-    <t>1989-01</t>
-  </si>
-  <si>
-    <t>1989-02</t>
-  </si>
-  <si>
-    <t>1989-03</t>
-  </si>
-  <si>
-    <t>1989-04</t>
-  </si>
-  <si>
-    <t>1989-05</t>
-  </si>
-  <si>
-    <t>1989-06</t>
-  </si>
-  <si>
-    <t>1989-07</t>
-  </si>
-  <si>
-    <t>1989-08</t>
-  </si>
-  <si>
-    <t>1989-09</t>
-  </si>
-  <si>
-    <t>1989-10</t>
-  </si>
-  <si>
-    <t>1989-11</t>
-  </si>
-  <si>
-    <t>1989-12</t>
-  </si>
-  <si>
-    <t>1990-01</t>
-  </si>
-  <si>
-    <t>1990-02</t>
-  </si>
-  <si>
-    <t>1990-03</t>
-  </si>
-  <si>
-    <t>1990-04</t>
-  </si>
-  <si>
-    <t>1990-05</t>
-  </si>
-  <si>
-    <t>1990-06</t>
-  </si>
-  <si>
-    <t>1990-07</t>
-  </si>
-  <si>
-    <t>1990-08</t>
-  </si>
-  <si>
-    <t>1990-09</t>
-  </si>
-  <si>
-    <t>1990-10</t>
-  </si>
-  <si>
-    <t>1990-11</t>
-  </si>
-  <si>
-    <t>1990-12</t>
-  </si>
-  <si>
-    <t>1991-01</t>
-  </si>
-  <si>
-    <t>1991-02</t>
-  </si>
-  <si>
-    <t>1991-03</t>
-  </si>
-  <si>
-    <t>1991-04</t>
-  </si>
-  <si>
-    <t>1991-05</t>
-  </si>
-  <si>
-    <t>1991-06</t>
-  </si>
-  <si>
-    <t>1991-07</t>
-  </si>
-  <si>
-    <t>1991-08</t>
-  </si>
-  <si>
-    <t>1991-09</t>
-  </si>
-  <si>
-    <t>1991-10</t>
-  </si>
-  <si>
-    <t>1991-11</t>
-  </si>
-  <si>
-    <t>1991-12</t>
-  </si>
-  <si>
-    <t>1992-01</t>
-  </si>
-  <si>
-    <t>1992-02</t>
-  </si>
-  <si>
-    <t>1992-03</t>
-  </si>
-  <si>
-    <t>1992-04</t>
-  </si>
-  <si>
-    <t>1992-05</t>
-  </si>
-  <si>
-    <t>1992-06</t>
-  </si>
-  <si>
-    <t>1992-07</t>
-  </si>
-  <si>
-    <t>1992-08</t>
-  </si>
-  <si>
-    <t>1992-09</t>
-  </si>
-  <si>
-    <t>1992-10</t>
-  </si>
-  <si>
-    <t>1992-11</t>
-  </si>
-  <si>
-    <t>1992-12</t>
-  </si>
-  <si>
-    <t>1993-01</t>
-  </si>
-  <si>
-    <t>1993-02</t>
-  </si>
-  <si>
-    <t>1993-03</t>
-  </si>
-  <si>
-    <t>1993-04</t>
-  </si>
-  <si>
-    <t>1993-05</t>
-  </si>
-  <si>
-    <t>1993-06</t>
-  </si>
-  <si>
-    <t>1993-07</t>
-  </si>
-  <si>
-    <t>1993-08</t>
-  </si>
-  <si>
-    <t>1993-09</t>
-  </si>
-  <si>
-    <t>1993-10</t>
-  </si>
-  <si>
-    <t>1993-11</t>
-  </si>
-  <si>
-    <t>1993-12</t>
-  </si>
-  <si>
-    <t>1994-01</t>
-  </si>
-  <si>
-    <t>1994-02</t>
-  </si>
-  <si>
-    <t>1994-03</t>
-  </si>
-  <si>
-    <t>1994-04</t>
-  </si>
-  <si>
-    <t>1994-05</t>
-  </si>
-  <si>
-    <t>1994-06</t>
-  </si>
-  <si>
-    <t>1994-07</t>
-  </si>
-  <si>
-    <t>1994-08</t>
-  </si>
-  <si>
-    <t>1994-09</t>
-  </si>
-  <si>
-    <t>1994-10</t>
-  </si>
-  <si>
-    <t>1994-11</t>
-  </si>
-  <si>
-    <t>1994-12</t>
-  </si>
-  <si>
-    <t>1995-01</t>
-  </si>
-  <si>
-    <t>1995-02</t>
-  </si>
-  <si>
-    <t>1995-03</t>
-  </si>
-  <si>
-    <t>1995-04</t>
-  </si>
-  <si>
-    <t>1995-05</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>1995-07</t>
-  </si>
-  <si>
-    <t>1995-08</t>
-  </si>
-  <si>
-    <t>1995-09</t>
-  </si>
-  <si>
-    <t>1995-10</t>
-  </si>
-  <si>
-    <t>1995-11</t>
-  </si>
-  <si>
-    <t>1995-12</t>
-  </si>
-  <si>
-    <t>1996-01</t>
-  </si>
-  <si>
-    <t>1996-02</t>
-  </si>
-  <si>
-    <t>1996-03</t>
-  </si>
-  <si>
-    <t>1996-04</t>
-  </si>
-  <si>
-    <t>1996-05</t>
-  </si>
-  <si>
-    <t>1996-06</t>
-  </si>
-  <si>
-    <t>1996-07</t>
-  </si>
-  <si>
-    <t>1996-08</t>
-  </si>
-  <si>
-    <t>1996-09</t>
-  </si>
-  <si>
-    <t>1996-10</t>
-  </si>
-  <si>
-    <t>1996-11</t>
-  </si>
-  <si>
-    <t>1996-12</t>
-  </si>
-  <si>
-    <t>1997-01</t>
-  </si>
-  <si>
-    <t>1997-02</t>
-  </si>
-  <si>
-    <t>1997-03</t>
-  </si>
-  <si>
-    <t>1997-04</t>
-  </si>
-  <si>
-    <t>1997-05</t>
-  </si>
-  <si>
-    <t>1997-06</t>
-  </si>
-  <si>
-    <t>1997-07</t>
-  </si>
-  <si>
-    <t>1997-08</t>
-  </si>
-  <si>
-    <t>1997-09</t>
-  </si>
-  <si>
-    <t>1997-10</t>
-  </si>
-  <si>
-    <t>1997-11</t>
-  </si>
-  <si>
-    <t>1997-12</t>
-  </si>
-  <si>
-    <t>1998-01</t>
-  </si>
-  <si>
-    <t>1998-02</t>
-  </si>
-  <si>
-    <t>1998-03</t>
-  </si>
-  <si>
-    <t>1998-04</t>
-  </si>
-  <si>
-    <t>1998-05</t>
-  </si>
-  <si>
-    <t>1998-06</t>
-  </si>
-  <si>
-    <t>1998-07</t>
-  </si>
-  <si>
-    <t>1998-08</t>
-  </si>
-  <si>
-    <t>1998-09</t>
-  </si>
-  <si>
-    <t>1998-10</t>
-  </si>
-  <si>
-    <t>1998-11</t>
-  </si>
-  <si>
-    <t>1998-12</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>Canada//Exports: Value</t>
-  </si>
-  <si>
-    <t>New Zealand//Exports: Value</t>
-  </si>
-  <si>
-    <t>Canada//Imports: Value</t>
-  </si>
-  <si>
-    <t>New Zealand//Imports: Value</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2615,2243 +366,3733 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:745">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KN1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KO1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KP1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="KR1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KS1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="LF1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="LG1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LL1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LM1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="LO1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="LP1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="LQ1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="LS1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="LT1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="LU1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="LV1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="LW1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="LX1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="LY1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="LZ1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="MA1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="MB1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="MC1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="MD1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="ME1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="MF1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="MG1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="MH1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="MI1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MJ1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="MK1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="ML1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="MM1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="MN1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="MO1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="MP1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="MQ1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="MR1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="MS1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="MT1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="MU1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="MV1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="MW1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="MX1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="MY1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="MZ1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="NA1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="NB1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="NC1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="ND1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="NE1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="NF1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="NG1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="NH1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="NI1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="NJ1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="NK1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="NL1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="NM1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="NN1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="NO1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="NP1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="NQ1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="NR1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="NS1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="NT1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="NU1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="NV1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="NW1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="NX1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="NY1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="NZ1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="OA1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="OB1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="OC1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="OD1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="OE1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="OF1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="OG1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="OH1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="OI1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="OJ1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="OK1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="OL1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="OM1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="ON1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="OO1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="OP1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="OQ1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="OR1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="OS1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="OT1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="OU1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="OV1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="OW1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="OX1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="OY1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="OZ1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="PA1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="PB1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="PC1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="PD1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="PE1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="PF1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="PG1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="PH1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="PI1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="PJ1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="PK1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="PL1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="PM1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="PN1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="PO1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="PP1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="PQ1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="PR1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="PS1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="PT1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="PU1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="PV1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="PW1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="PX1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="PY1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="PZ1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="QA1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="QB1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="QC1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="QD1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="QE1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="QF1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="QG1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="QH1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="QI1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="QJ1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="QK1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="QL1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="QM1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="QN1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="QO1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="QP1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="QQ1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="QR1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="QS1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="QT1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="QU1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="QV1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="QW1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="QX1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="QY1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="QZ1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="RA1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="RB1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="RC1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="RD1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="RE1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="RF1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="RG1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="RH1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="RI1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="RJ1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="RK1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="RL1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="RM1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="RN1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="RO1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="RP1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="RQ1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="RR1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="RS1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="RT1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="RU1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="RV1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="RW1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="RX1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="RY1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="RZ1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="SA1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="SB1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="SC1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="SD1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="SE1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="SF1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="SG1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="SH1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="SI1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="SJ1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="SK1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="SL1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="SM1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="SN1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="SO1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="SP1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="SQ1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="SR1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="SS1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="ST1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="SU1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="SV1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="SW1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="SX1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="SY1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="SZ1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="TA1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="TB1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="TC1" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="TD1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="TE1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="TF1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="TG1" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="TH1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="TI1" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="TJ1" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="TK1" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="TL1" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="TM1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="TN1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="TO1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="TP1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="TQ1" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="TR1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="TS1" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="TT1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="TU1" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="TV1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="TW1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="TX1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="TY1" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="TZ1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="UA1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="UB1" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="UC1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="UD1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="UE1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="UF1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="UG1" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="UH1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="UI1" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="UJ1" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="UK1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="UL1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="UM1" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="UN1" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="UO1" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="UP1" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="UQ1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="UR1" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="US1" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="UT1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="UU1" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="UV1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="UW1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="UX1" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="UY1" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="UZ1" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="VA1" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="VB1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="VC1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="VD1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="VE1" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="VF1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="VG1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="VH1" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="VI1" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="VJ1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="VK1" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="VL1" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="VM1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="VN1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="VO1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="VP1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="VQ1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="VR1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="VS1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="VT1" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="VU1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="VV1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="VW1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="VX1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="VY1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="VZ1" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="WA1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="WB1" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="WC1" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="WD1" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="WE1" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="WF1" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="WG1" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="WH1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="WI1" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="WJ1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="WK1" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="WL1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="WM1" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="WN1" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="WO1" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="WP1" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="WQ1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="WR1" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="WS1" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="WT1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="WU1" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="WV1" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="WW1" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="WX1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="WY1" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="WZ1" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="XA1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="XB1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="XC1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="XD1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="XE1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="XF1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="XG1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="XH1" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="XI1" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="XJ1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="XK1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="XL1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="XM1" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="XN1" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="XO1" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="XP1" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="XQ1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="XR1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="XS1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="XT1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="XU1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="XV1" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="XW1" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="XX1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="XY1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="XZ1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="YA1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="YB1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="YC1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="YD1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="YE1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="YF1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="YG1" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="YH1" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="YI1" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="YJ1" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="YK1" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="YL1" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="YM1" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="YN1" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="YO1" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="YP1" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="YQ1" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="YR1" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="YS1" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="YT1" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="YU1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="YV1" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="YW1" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="YX1" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="YY1" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="YZ1" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="ZA1" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="ZB1" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="ZC1" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="ZD1" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="ZE1" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="ZF1" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="ZG1" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="ZH1" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="ZI1" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="ZJ1" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="ZK1" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="ZL1" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="ZM1" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="ZN1" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="ZO1" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="ZP1" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="ZQ1" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="ZR1" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="ZS1" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="ZT1" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="ZU1" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="ZV1" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="ZW1" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="ZX1" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="ZY1" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="ZZ1" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="AAA1" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="AAB1" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AAC1" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="AAD1" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="AAE1" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="AAF1" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="AAG1" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AAH1" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="AAI1" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AAJ1" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="AAK1" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="AAL1" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="AAM1" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="AAN1" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="AAO1" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="AAP1" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="AAQ1" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="AAR1" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AAS1" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="AAT1" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="AAU1" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="AAV1" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="AAW1" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="AAX1" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="AAY1" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="AAZ1" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="ABA1" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="ABB1" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="ABC1" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="ABD1" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="ABE1" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="ABF1" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="ABG1" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="ABH1" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="ABI1" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="ABJ1" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="ABK1" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="ABL1" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="ABM1" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="ABN1" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="ABO1" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="ABP1" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="ABQ1" s="1" t="s">
-        <v>743</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1960-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1960-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1960-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1960-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1960-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1960-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1960-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1960-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1960-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1960-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1960-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1961-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1961-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1961-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1961-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1961-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1961-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1961-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1961-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1961-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1961-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1961-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1961-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1962-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1962-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1962-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1962-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1962-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1962-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1962-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1962-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1962-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1962-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1962-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1962-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1963-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1963-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1963-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1963-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1963-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1963-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1963-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1963-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1963-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1963-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1963-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1963-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1964-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1964-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1964-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1964-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1964-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1964-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1964-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1964-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1964-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1964-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1964-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1964-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1965-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1965-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1965-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1965-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1965-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1965-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1965-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1965-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1965-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1965-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1965-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1965-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1966-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1966-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1966-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1966-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1966-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1966-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1966-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1966-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1966-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1966-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1966-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1966-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1967-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1967-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1967-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1967-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1967-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1967-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1967-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1967-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1967-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1967-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1967-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1967-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1968-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1968-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1968-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1968-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>1968-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>1968-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>1968-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1968-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>1968-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>1968-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>1968-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>1968-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>1969-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>1969-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>1969-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>1969-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>1969-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>1969-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>1969-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>1969-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>1969-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>1969-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>1969-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>1969-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>1970-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>1970-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>1970-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>1970-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>1970-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>1970-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>1970-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>1970-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>1970-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>1970-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>1970-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>1970-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>1971-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>1971-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>1971-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>1971-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>1971-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>1971-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>1971-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>1971-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>1971-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>1971-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>1971-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>1971-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>1972-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>1972-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>1972-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>1972-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>1972-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>1972-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>1972-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>1972-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>1972-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>1972-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>1972-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>1972-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>1973-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>1973-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>1973-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>1973-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>1973-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>1973-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>1973-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>1973-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>1973-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>1973-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>1973-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>1973-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>1974-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>1974-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>1974-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>1974-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>1974-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>1974-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>1974-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>1974-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>1974-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>1974-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>1974-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>1974-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>1975-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>1975-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>1975-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>1975-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>1975-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>1975-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>1975-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>1975-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>1975-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>1975-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>1975-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>1975-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>1976-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>1976-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>1976-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>1976-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>1976-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>1976-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>1976-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>1976-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>1976-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>1976-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>1976-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>1976-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>1977-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>1977-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>1977-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>1977-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>1977-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>1977-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>1977-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>1977-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>1977-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>1977-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>1977-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>1977-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>1978-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>1978-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>1978-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>1978-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>1978-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>1978-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>1978-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>1978-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>1978-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>1978-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>1978-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>1978-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>1979-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>1979-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>1979-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>1979-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>1979-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>1979-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>1979-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>1979-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>1979-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>1979-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>1979-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>1979-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>1980-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>1980-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>1980-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>1980-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>1980-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>1980-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>1980-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>1980-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>1980-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>1980-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>1980-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>1980-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>1981-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>1981-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>1981-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>1981-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>1981-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>1981-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>1981-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>1981-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>1981-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>1981-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>1981-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>1981-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>1982-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>1982-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>1982-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>1982-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>1982-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>1982-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>1982-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>1982-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>1982-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>1982-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>1982-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>1982-12</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>1983-01</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>1983-02</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>1983-03</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>1983-04</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>1983-05</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>1983-06</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>1983-07</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>1983-08</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>1983-09</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>1983-10</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>1983-11</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>1983-12</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>1984-01</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>1984-02</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>1984-03</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>1984-04</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>1984-05</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>1984-06</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>1984-07</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>1984-08</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>1984-09</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>1984-10</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>1984-11</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>1984-12</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>1985-01</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>1985-02</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>1985-03</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>1985-04</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>1985-05</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>1985-06</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>1985-07</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>1985-08</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>1985-09</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>1985-10</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>1985-11</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>1985-12</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>1986-01</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>1986-02</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>1986-03</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>1986-04</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>1986-05</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>1986-06</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>1986-07</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>1986-08</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>1986-09</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>1986-10</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>1986-11</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>1986-12</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>1987-01</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>1987-02</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>1987-03</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>1987-04</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>1987-05</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>1987-06</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>1987-07</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>1987-08</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>1987-09</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>1987-10</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>1987-11</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>1987-12</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>1988-01</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>1988-02</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>1988-03</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>1988-04</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>1988-05</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>1988-06</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>1988-07</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>1988-08</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>1988-09</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>1988-10</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>1988-11</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>1988-12</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>1989-01</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>1989-02</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>1989-03</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>1989-04</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>1989-05</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>1989-06</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>1989-07</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>1989-08</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>1989-09</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>1989-10</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>1989-11</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>1989-12</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>1990-01</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>1990-02</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>1990-03</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>1990-04</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>1990-05</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>1990-06</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>1990-07</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>1990-08</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>1990-09</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>1990-10</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>1990-11</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>1990-12</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-01</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>1991-02</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>1991-03</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>1991-04</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>1991-05</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>1991-06</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>1991-07</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-08</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>1991-09</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>1991-10</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>1991-11</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>1991-12</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>1992-01</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>1992-02</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>1992-03</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>1992-04</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>1992-05</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>1992-06</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>1992-07</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>1992-08</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>1992-09</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>1992-10</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>1992-11</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>1992-12</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>1993-01</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>1993-02</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-03</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>1993-04</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>1993-05</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>1993-06</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>1993-07</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>1993-08</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>1993-09</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-10</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>1993-11</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>1993-12</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>1994-01</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>1994-02</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>1994-03</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>1994-04</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>1994-05</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>1994-06</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>1994-07</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>1994-08</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>1994-09</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>1994-10</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>1994-11</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>1994-12</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>1995-01</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>1995-02</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>1995-03</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>1995-04</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-05</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>1995-06</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>1995-07</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>1995-08</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>1995-09</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>1995-10</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>1995-11</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>1995-12</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>1996-02</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>1996-03</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>1996-04</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>1996-05</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>1996-06</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>1996-07</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>1996-08</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-09</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>1996-10</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>1996-11</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>1996-12</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>1997-01</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>1997-02</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>1997-03</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>1997-04</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>1997-05</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>1997-06</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-07</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>1997-08</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>1997-09</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>1997-10</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>1997-11</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>1997-12</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>1998-01</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-02</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>1998-03</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>1998-04</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>1998-05</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>1998-06</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>1998-07</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>1998-08</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>1998-09</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>1998-10</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-11</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>1998-12</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:745">
-      <c r="A2" s="1" t="s">
-        <v>744</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Canada//Exports: Value</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>19.940383</v>
@@ -7079,12 +6320,14 @@
       <c r="ABO2" t="n">
         <v>914.877</v>
       </c>
-      <c r="ABP2" t="s"/>
-      <c r="ABQ2" t="s"/>
+      <c r="ABP2" t="inlineStr"/>
+      <c r="ABQ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:745">
-      <c r="A3" s="1" t="s">
-        <v>745</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand//Exports: Value</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>2.4306816</v>
@@ -9312,12 +8555,14 @@
       <c r="ABO3" t="n">
         <v>136.086</v>
       </c>
-      <c r="ABP3" t="s"/>
-      <c r="ABQ3" t="s"/>
+      <c r="ABP3" t="inlineStr"/>
+      <c r="ABQ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:745">
-      <c r="A4" s="1" t="s">
-        <v>746</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Canada//Imports: Value</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>43.971102</v>
@@ -11545,12 +10790,14 @@
       <c r="ABO4" t="n">
         <v>474.281</v>
       </c>
-      <c r="ABP4" t="s"/>
-      <c r="ABQ4" t="s"/>
+      <c r="ABP4" t="inlineStr"/>
+      <c r="ABQ4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:745">
-      <c r="A5" s="1" t="s">
-        <v>747</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>New Zealand//Imports: Value</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>5.2438095</v>
@@ -13778,8 +13025,8 @@
       <c r="ABO5" t="n">
         <v>51.701</v>
       </c>
-      <c r="ABP5" t="s"/>
-      <c r="ABQ5" t="s"/>
+      <c r="ABP5" t="inlineStr"/>
+      <c r="ABQ5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/134/DEUSTATIS/Foreign trade - countries_historical.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - countries_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ABQ5"/>
+  <dimension ref="A1:ACC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,6 +4087,66 @@
           <t>2021-12</t>
         </is>
       </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6312,16 +6372,34 @@
         <v>872.231</v>
       </c>
       <c r="ABM2" t="n">
-        <v>714.593</v>
+        <v>717.8869999999999</v>
       </c>
       <c r="ABN2" t="n">
-        <v>784.077</v>
+        <v>784.9160000000001</v>
       </c>
       <c r="ABO2" t="n">
-        <v>914.877</v>
-      </c>
-      <c r="ABP2" t="inlineStr"/>
-      <c r="ABQ2" t="inlineStr"/>
+        <v>912.944</v>
+      </c>
+      <c r="ABP2" t="n">
+        <v>929.104</v>
+      </c>
+      <c r="ABQ2" t="n">
+        <v>862.754</v>
+      </c>
+      <c r="ABR2" t="n">
+        <v>821.564</v>
+      </c>
+      <c r="ABS2" t="inlineStr"/>
+      <c r="ABT2" t="inlineStr"/>
+      <c r="ABU2" t="inlineStr"/>
+      <c r="ABV2" t="inlineStr"/>
+      <c r="ABW2" t="inlineStr"/>
+      <c r="ABX2" t="inlineStr"/>
+      <c r="ABY2" t="inlineStr"/>
+      <c r="ABZ2" t="inlineStr"/>
+      <c r="ACA2" t="inlineStr"/>
+      <c r="ACB2" t="inlineStr"/>
+      <c r="ACC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -8547,16 +8625,34 @@
         <v>149.659</v>
       </c>
       <c r="ABM3" t="n">
-        <v>105.658</v>
+        <v>105.509</v>
       </c>
       <c r="ABN3" t="n">
-        <v>157.417</v>
+        <v>157.1</v>
       </c>
       <c r="ABO3" t="n">
-        <v>136.086</v>
-      </c>
-      <c r="ABP3" t="inlineStr"/>
-      <c r="ABQ3" t="inlineStr"/>
+        <v>136.053</v>
+      </c>
+      <c r="ABP3" t="n">
+        <v>158.92</v>
+      </c>
+      <c r="ABQ3" t="n">
+        <v>159.439</v>
+      </c>
+      <c r="ABR3" t="n">
+        <v>117.656</v>
+      </c>
+      <c r="ABS3" t="inlineStr"/>
+      <c r="ABT3" t="inlineStr"/>
+      <c r="ABU3" t="inlineStr"/>
+      <c r="ABV3" t="inlineStr"/>
+      <c r="ABW3" t="inlineStr"/>
+      <c r="ABX3" t="inlineStr"/>
+      <c r="ABY3" t="inlineStr"/>
+      <c r="ABZ3" t="inlineStr"/>
+      <c r="ACA3" t="inlineStr"/>
+      <c r="ACB3" t="inlineStr"/>
+      <c r="ACC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -10770,28 +10866,46 @@
         <v>572.479</v>
       </c>
       <c r="ABI4" t="n">
-        <v>428.831</v>
+        <v>428.858</v>
       </c>
       <c r="ABJ4" t="n">
-        <v>385.501</v>
+        <v>401.135</v>
       </c>
       <c r="ABK4" t="n">
-        <v>599.813</v>
+        <v>585.559</v>
       </c>
       <c r="ABL4" t="n">
-        <v>493.21</v>
+        <v>488.056</v>
       </c>
       <c r="ABM4" t="n">
-        <v>620.385</v>
+        <v>621.6319999999999</v>
       </c>
       <c r="ABN4" t="n">
-        <v>529.579</v>
+        <v>532.097</v>
       </c>
       <c r="ABO4" t="n">
-        <v>474.281</v>
-      </c>
-      <c r="ABP4" t="inlineStr"/>
-      <c r="ABQ4" t="inlineStr"/>
+        <v>477.842</v>
+      </c>
+      <c r="ABP4" t="n">
+        <v>483.051</v>
+      </c>
+      <c r="ABQ4" t="n">
+        <v>644.843</v>
+      </c>
+      <c r="ABR4" t="n">
+        <v>454.064</v>
+      </c>
+      <c r="ABS4" t="inlineStr"/>
+      <c r="ABT4" t="inlineStr"/>
+      <c r="ABU4" t="inlineStr"/>
+      <c r="ABV4" t="inlineStr"/>
+      <c r="ABW4" t="inlineStr"/>
+      <c r="ABX4" t="inlineStr"/>
+      <c r="ABY4" t="inlineStr"/>
+      <c r="ABZ4" t="inlineStr"/>
+      <c r="ACA4" t="inlineStr"/>
+      <c r="ACB4" t="inlineStr"/>
+      <c r="ACC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -13005,28 +13119,46 @@
         <v>54.285</v>
       </c>
       <c r="ABI5" t="n">
-        <v>51.513</v>
+        <v>51.517</v>
       </c>
       <c r="ABJ5" t="n">
-        <v>55.188</v>
+        <v>55.195</v>
       </c>
       <c r="ABK5" t="n">
-        <v>72.996</v>
+        <v>73.626</v>
       </c>
       <c r="ABL5" t="n">
-        <v>69.8</v>
+        <v>70.04300000000001</v>
       </c>
       <c r="ABM5" t="n">
-        <v>64.16</v>
+        <v>59.678</v>
       </c>
       <c r="ABN5" t="n">
-        <v>63.313</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="ABO5" t="n">
-        <v>51.701</v>
-      </c>
-      <c r="ABP5" t="inlineStr"/>
-      <c r="ABQ5" t="inlineStr"/>
+        <v>51.926</v>
+      </c>
+      <c r="ABP5" t="n">
+        <v>47.511</v>
+      </c>
+      <c r="ABQ5" t="n">
+        <v>46.479</v>
+      </c>
+      <c r="ABR5" t="n">
+        <v>39.451</v>
+      </c>
+      <c r="ABS5" t="inlineStr"/>
+      <c r="ABT5" t="inlineStr"/>
+      <c r="ABU5" t="inlineStr"/>
+      <c r="ABV5" t="inlineStr"/>
+      <c r="ABW5" t="inlineStr"/>
+      <c r="ABX5" t="inlineStr"/>
+      <c r="ABY5" t="inlineStr"/>
+      <c r="ABZ5" t="inlineStr"/>
+      <c r="ACA5" t="inlineStr"/>
+      <c r="ACB5" t="inlineStr"/>
+      <c r="ACC5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
